--- a/examples/trainData/initial_report_sample.xlsx
+++ b/examples/trainData/initial_report_sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ROWID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1,16]</t>
+          <t>[1,29]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -557,17 +557,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>PID</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>Int64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -581,7 +581,11 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[1,20]</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>N.A.</t>
@@ -612,7 +616,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -642,11 +646,7 @@
           <t>N.A.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>male, female</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>check_false</t>
@@ -671,17 +671,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Int64</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>string</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -695,17 +695,17 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[16,39]</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>male, female</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>check_false</t>
@@ -730,7 +730,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AgeMonths</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[194,476]</t>
+          <t>[16,39]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -789,12 +789,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>AgeMonths</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Float64</t>
+          <t>Int64</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[154.7,190.1]</t>
+          <t>[194,476]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -848,7 +848,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -867,14 +867,14 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[51.2,86.3]</t>
+          <t>[-96.2,190.1]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -882,10 +882,14 @@
           <t>N.A.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[0,200]</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>check_false</t>
+          <t>check_true</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -895,7 +899,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -907,7 +911,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -926,14 +930,14 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[20.3,28.29]</t>
+          <t>[-49.9,88.7]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -941,10 +945,14 @@
           <t>N.A.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[0,150]</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>check_false</t>
+          <t>check_true</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -954,7 +962,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>19</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -966,17 +974,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BMICatUnder20yrs</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>Float64</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -985,22 +993,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[-19.89,95.85]</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>UnderWeight; NormWeight; OverWeight; Obese</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>check_false</t>
@@ -1008,7 +1016,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>check_true</t>
+          <t>check_false</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1018,14 +1026,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1,3,6,7,8,10,11,12,15</t>
+          <t>N.A.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BMI_WHO</t>
+          <t>BMICatUnder20yrs</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1057,7 +1065,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12.0_18.4; 18.5_24.9; 25.0_29.9; 30.0_plus</t>
+          <t>UnderWeight; NormWeight; OverWeight; Obese</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1077,24 +1085,24 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</t>
+          <t>1,3,6,7,8,10,11,12,15,16,17,18,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Date of Birth</t>
+          <t>BMI_WHO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1116,7 +1124,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ddd, dd mmmm yy</t>
+          <t>12.0_18.5; 18.5_to_24.9; 25.0_to_29.9; 30.0_plus</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1126,7 +1134,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>check_false</t>
+          <t>check_true</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1136,14 +1144,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>12,16,17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Date of First Visit</t>
+          <t>Date of Birth</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1202,7 +1210,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Date of Diagnosis</t>
+          <t>Date of First Visit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1261,7 +1269,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Date of Treatment</t>
+          <t>Date of Diagnosis</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1280,10 +1288,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -1312,6 +1320,120 @@
         </is>
       </c>
       <c r="M15" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Date of Treatment</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ddd, dd mmmm yy</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>check_false</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>check_false</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Total Care Cost</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>check_false</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>check_false</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>
